--- a/AAII_Financials/Yearly/HLP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>HLP</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -886,8 +886,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -923,8 +923,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>17400</v>
       </c>
       <c r="E17" s="3">
         <v>17800</v>
@@ -950,8 +950,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>2900</v>
       </c>
       <c r="E18" s="3">
         <v>3900</v>
@@ -990,8 +990,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>-400</v>
@@ -1017,8 +1017,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>3900</v>
       </c>
       <c r="E21" s="3">
         <v>4200</v>
@@ -1044,8 +1044,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1152,8 +1152,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>2900</v>
       </c>
       <c r="E26" s="3">
         <v>3200</v>
@@ -1179,8 +1179,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>2900</v>
       </c>
       <c r="E27" s="3">
         <v>3200</v>
@@ -1314,8 +1314,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>400</v>
@@ -1341,8 +1341,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>2900</v>
       </c>
       <c r="E33" s="3">
         <v>3200</v>
@@ -1395,8 +1395,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>2900</v>
       </c>
       <c r="E35" s="3">
         <v>3200</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -2469,8 +2469,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>2900</v>
       </c>
       <c r="E81" s="3">
         <v>3200</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11700</v>
+        <v>-11700</v>
       </c>
       <c r="E94" s="3">
         <v>-3100</v>
